--- a/docs/qa/user-service-manual-testing-doc.xlsx
+++ b/docs/qa/user-service-manual-testing-doc.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D008DA-6A6E-47EE-894A-C7D2143DE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/dev/project/sandbox/user-service/docs/qa/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB7F4EA-7E3F-DD49-834C-8B9F4A7E1FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterUser" sheetId="1" r:id="rId1"/>
+    <sheet name="HealthStatus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -22,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -142,12 +147,32 @@
   <si>
     <t>422 Unprocessable Entity with role validation error</t>
   </si>
+  <si>
+    <t>Check API health endpoint</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/health</t>
+  </si>
+  <si>
+    <t>Status is healthy</t>
+  </si>
+  <si>
+    <t>{
+    "status": "Healthy",
+    "dependencies": {
+        "database": "Connected"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +187,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -309,6 +340,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,6 +427,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -399,15 +443,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -456,7 +491,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CB81657-7837-4C04-A05E-B6559C4B27BD}" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CB81657-7837-4C04-A05E-B6559C4B27BD}" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D8" xr:uid="{0CB81657-7837-4C04-A05E-B6559C4B27BD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{546F898A-88E6-4466-8FD8-41F63F3A68A6}" name="Scenario Type" dataDxfId="3"/>
@@ -757,21 +792,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="80.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="80.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -791,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="198">
+    <row r="2" spans="1:6" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -807,7 +842,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="76.5">
+    <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -823,7 +858,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="76.5">
+    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -839,7 +874,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="60.75">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -855,7 +890,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1">
+    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -871,7 +906,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="60.75">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -887,7 +922,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="60.75">
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -909,4 +944,59 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4C9288-F15E-6D41-B0F3-E57351CE3055}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>